--- a/data_join/모델링 결과 정리.xlsx
+++ b/data_join/모델링 결과 정리.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>광진구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>Gradient Boosting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -497,9 +493,9 @@
     <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -511,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -522,363 +518,327 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>0.489006</v>
+      </c>
+      <c r="D2">
+        <v>0.49522969999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.48916310000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.2656673</v>
+      </c>
+      <c r="G2">
+        <v>0.34065030000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.42232199999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.27408779999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>0.48885800000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.49522769999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.48879489999999998</v>
-      </c>
-      <c r="F2">
-        <v>0.26656000000000002</v>
-      </c>
-      <c r="G2">
-        <v>0.33733410000000003</v>
-      </c>
-      <c r="H2">
-        <v>0.41108090000000003</v>
-      </c>
-      <c r="I2">
-        <v>0.26734980000000003</v>
-      </c>
-      <c r="J2">
-        <v>0.90292749999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>0.53094129999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.54380300000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.53077830000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.31437189999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.3654809</v>
+      </c>
+      <c r="H3">
+        <v>0.47928710000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.32535199999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0.54871820000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.54995810000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.5485563</v>
+      </c>
+      <c r="F4">
+        <v>0.28735749999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.35439779999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.39994849999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.29517070000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>0.53116090000000005</v>
-      </c>
-      <c r="D3">
-        <v>0.54399790000000003</v>
-      </c>
-      <c r="E3">
-        <v>0.5309741</v>
-      </c>
-      <c r="F3">
-        <v>0.31502469999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.37014659999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.45510699999999998</v>
-      </c>
-      <c r="I3">
-        <v>0.32952569999999998</v>
-      </c>
-      <c r="J3">
-        <v>0.93802459999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>0.54812729999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.54993409999999998</v>
-      </c>
-      <c r="E4">
-        <v>0.54855180000000003</v>
-      </c>
-      <c r="F4">
-        <v>0.2866148</v>
-      </c>
-      <c r="G4">
-        <v>0.35533419999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.40189279999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.3000755</v>
-      </c>
-      <c r="J4">
-        <v>0.92404850000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>0.52589249999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.5254027</v>
+      </c>
+      <c r="E5">
+        <v>0.52496589999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.3032146</v>
+      </c>
+      <c r="G5">
+        <v>0.35007110000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.46127089999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.30872559999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0.52250110000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.52367909999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.52267509999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.32548539999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.34291579999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.50566319999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.3117412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>0.52360960000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.52541329999999997</v>
-      </c>
-      <c r="E5">
-        <v>0.52403299999999997</v>
-      </c>
-      <c r="F5">
-        <v>0.30236489999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.34671960000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.44694519999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.3112741</v>
-      </c>
-      <c r="J5">
-        <v>0.9609877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>0.52069259999999995</v>
-      </c>
-      <c r="D6">
-        <v>0.52349909999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.52266840000000003</v>
-      </c>
-      <c r="F6">
-        <v>0.32459470000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.3473793</v>
-      </c>
-      <c r="H6">
-        <v>0.49138979999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.31982830000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.90091699999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>0.58838029999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.59194270000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.58849560000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.36090290000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.43837680000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.56447740000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.35830699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
-        <v>0.58838639999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.59222710000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.58884590000000003</v>
-      </c>
-      <c r="F7">
-        <v>0.35946489999999998</v>
-      </c>
-      <c r="G7">
-        <v>0.44446249999999998</v>
-      </c>
-      <c r="H7">
-        <v>0.54612150000000004</v>
-      </c>
-      <c r="I7">
-        <v>0.36796259999999997</v>
-      </c>
-      <c r="J7">
-        <v>0.99632339999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>0.46703169999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.4697307</v>
+      </c>
+      <c r="E8">
+        <v>0.46704380000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.30995709999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.32719860000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.47508719999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3017686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.53373139999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.54682269999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.53350980000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.32128309999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.39952579999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.45187189999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.33198159999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
-        <v>0.46676319999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.4695705</v>
-      </c>
-      <c r="E8">
-        <v>0.46666839999999998</v>
-      </c>
-      <c r="F8">
-        <v>0.30996820000000003</v>
-      </c>
-      <c r="G8">
-        <v>0.32823790000000003</v>
-      </c>
-      <c r="H8">
-        <v>0.48044550000000003</v>
-      </c>
-      <c r="I8">
-        <v>0.30666450000000001</v>
-      </c>
-      <c r="J8">
-        <v>0.90078150000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>0.53353740000000005</v>
-      </c>
-      <c r="D9">
-        <v>0.54681179999999996</v>
-      </c>
-      <c r="E9">
-        <v>0.53315489999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.31970949999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.38883810000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.45009470000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.330239</v>
-      </c>
-      <c r="J9">
-        <v>0.98346699999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>0.43722850000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.44375439999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.43875350000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.29705429999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.36260969999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.4368358</v>
+      </c>
+      <c r="I10">
+        <v>0.3209417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>0.43721769999999999</v>
-      </c>
-      <c r="D10">
-        <v>0.44376339999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.43813570000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.29723690000000003</v>
-      </c>
-      <c r="G10">
-        <v>0.36608780000000002</v>
-      </c>
-      <c r="H10">
-        <v>0.4155025</v>
-      </c>
-      <c r="I10">
-        <v>0.3216155</v>
-      </c>
-      <c r="J10">
-        <v>0.85826899999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0.52845609999999998</v>
       </c>
       <c r="D11">
-        <v>0.53050810000000004</v>
+        <v>0.53051420000000005</v>
       </c>
       <c r="E11">
-        <v>0.52883259999999999</v>
+        <v>0.52904969999999996</v>
       </c>
       <c r="F11">
-        <v>0.33349380000000001</v>
+        <v>0.33313409999999999</v>
       </c>
       <c r="G11">
-        <v>0.37249120000000002</v>
+        <v>0.36686469999999999</v>
       </c>
       <c r="H11">
-        <v>0.45779439999999999</v>
+        <v>0.46865659999999998</v>
       </c>
       <c r="I11">
-        <v>0.34457880000000002</v>
-      </c>
-      <c r="J11">
-        <v>0.91309320000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.35121439999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>0.4610397</v>
+        <v>0.4609955</v>
       </c>
       <c r="D12">
-        <v>0.4663216</v>
+        <v>0.46628029999999998</v>
       </c>
       <c r="E12">
-        <v>0.46128669999999999</v>
+        <v>0.46134370000000002</v>
       </c>
       <c r="F12">
-        <v>0.25461810000000001</v>
+        <v>0.25431090000000001</v>
       </c>
       <c r="G12">
-        <v>0.30416559999999998</v>
+        <v>0.31213859999999999</v>
       </c>
       <c r="H12">
-        <v>0.39616479999999998</v>
+        <v>0.38277270000000002</v>
       </c>
       <c r="I12">
-        <v>0.2651655</v>
-      </c>
-      <c r="J12">
-        <v>0.88605540000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.2611059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -886,117 +846,104 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <f>MIN(C2:C12)</f>
-        <v>0.43721769999999999</v>
+        <v>0.43722850000000002</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:J14" si="0">MIN(D2:D12)</f>
-        <v>0.44376339999999997</v>
+        <f t="shared" ref="D14:I14" si="0">MIN(D2:D12)</f>
+        <v>0.44375439999999999</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.43813570000000002</v>
+        <v>0.43875350000000002</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.25461810000000001</v>
+        <v>0.25431090000000001</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.30416559999999998</v>
+        <v>0.31213859999999999</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.39616479999999998</v>
+        <v>0.38277270000000002</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.2651655</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.85826899999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.2611059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <f>MAX(C2:C12)</f>
-        <v>0.58838639999999998</v>
+        <v>0.58838029999999997</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:J15" si="1">MAX(D2:D12)</f>
-        <v>0.59222710000000001</v>
+        <f t="shared" ref="D15:I15" si="1">MAX(D2:D12)</f>
+        <v>0.59194270000000004</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.58884590000000003</v>
+        <v>0.58849560000000001</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.35946489999999998</v>
+        <v>0.36090290000000003</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.44446249999999998</v>
+        <v>0.43837680000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.54612150000000004</v>
+        <v>0.56447740000000002</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0.36796259999999997</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0.99632339999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.35830699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <f>C15-C14</f>
-        <v>0.15116869999999999</v>
+        <v>0.15115179999999995</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:J16" si="2">D15-D14</f>
-        <v>0.14846370000000003</v>
+        <f t="shared" ref="D16:I16" si="2">D15-D14</f>
+        <v>0.14818830000000005</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>0.15071020000000002</v>
+        <v>0.14974209999999999</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.10484679999999996</v>
+        <v>0.10659200000000002</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>0.1402969</v>
+        <v>0.12623820000000002</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.14995670000000005</v>
+        <v>0.1817047</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0.10279709999999997</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0.13805440000000002</v>
+        <v>9.7201099999999985E-2</v>
       </c>
     </row>
   </sheetData>
